--- a/public/modele_autocollants.xlsx
+++ b/public/modele_autocollants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP FOLIO 9470m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4800391C-78F2-4D93-BA3D-2AE2B8394EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012BBF7-AEE3-43B4-8E21-31A048C14807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>nom</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Excellence et discipline</t>
   </si>
   <si>
-    <t>+225 05 67 89 12 34</t>
-  </si>
-  <si>
     <t>TRAORE</t>
   </si>
   <si>
@@ -76,32 +73,28 @@
     <t>Français</t>
   </si>
   <si>
-    <t>+225 07 45 82 96 13</t>
-  </si>
-  <si>
-    <t>logo ecole</t>
-  </si>
-  <si>
-    <t>logo CI</t>
-  </si>
-  <si>
-    <t>photo eleve</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/9/9d/Coat_of_Arms_of_the_Ivory_Coast.svg</t>
-  </si>
-  <si>
-    <t>https://www.ecolejulesverne-ci.net/wp-content/uploads/2015/08/JulesVerne_Logo_video.png</t>
+    <t>05 67 89 12 34</t>
+  </si>
+  <si>
+    <t>07 45 82 96 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,13 +117,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -484,7 +480,7 @@
     <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,17 +502,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -536,27 +523,23 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -566,18 +549,12 @@
       </c>
       <c r="G3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1 A3:F3 B2:F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/modele_autocollants.xlsx
+++ b/public/modele_autocollants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP FOLIO 9470m\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7012BBF7-AEE3-43B4-8E21-31A048C14807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A332AF-CE49-4FE8-97DB-2518085EB271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>nom</t>
   </si>
@@ -31,9 +31,6 @@
     <t>classe</t>
   </si>
   <si>
-    <t>matiere</t>
-  </si>
-  <si>
     <t>nom ecole</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>6E 2</t>
   </si>
   <si>
-    <t>Mathématiques</t>
-  </si>
-  <si>
     <t>Collège Moderne de Cocody</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>5E 1</t>
-  </si>
-  <si>
-    <t>Français</t>
   </si>
   <si>
     <t>05 67 89 12 34</t>
@@ -464,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -475,12 +466,11 @@
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="4" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,62 +489,53 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 A3:F3 B2:F2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A3:C3 B2:C2 D1:F1 D3:E3 D2:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/modele_autocollants.xlsx
+++ b/public/modele_autocollants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP FOLIO 9470m\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP FOLIO 9470m\Documents\Flysh test\Flysh test\client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A332AF-CE49-4FE8-97DB-2518085EB271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D668DF-BE5F-4FF7-87DA-F6CFB4771ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="12444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>nom</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>07 45 82 96 13</t>
+  </si>
+  <si>
+    <t>matricule</t>
+  </si>
+  <si>
+    <t>243719D</t>
+  </si>
+  <si>
+    <t>243768N</t>
   </si>
 </sst>
 </file>
@@ -112,9 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -458,7 +468,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -489,6 +499,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -509,7 +522,9 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -530,6 +545,9 @@
       </c>
       <c r="F3" t="s">
         <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
